--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270408</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S12" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1551,25 +1551,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1669,7 +1669,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1903,7 +1903,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
         <v>648.751427201877</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.620476775678</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406130752</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="R31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>57.56516074743381</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4170,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1677.761866429961</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>2595.354589746545</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3077.533789260047</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4527,19 +4527,19 @@
         <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4579,46 +4579,46 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010445</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523947</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396619</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337363</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4707,46 +4707,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4761,22 +4761,22 @@
         <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473567</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987069</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.580088859741</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800485</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897899</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4944,46 +4944,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5001,19 +5001,19 @@
         <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651425</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010445</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523947</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396619</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,55 +5281,55 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K14" t="n">
-        <v>2550.716641651425</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010445</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523947</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396619</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337363</v>
+        <v>5474.616964966544</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5445,43 +5445,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
         <v>140.96</v>
@@ -5497,10 +5497,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
         <v>1711.662994324041</v>
@@ -5518,55 +5518,55 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L17" t="n">
-        <v>2631.383042915616</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523947</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396619</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337363</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5755,31 +5755,31 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>2124.71495243113</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010445</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523947</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396619</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,49 +5971,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>2936.062862426065</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>3418.242061939568</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N23" t="n">
-        <v>3983.28512581224</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O23" t="n">
-        <v>4893.440008752984</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
         <v>7048</v>
@@ -6022,25 +6022,25 @@
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="24">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6232,52 +6232,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L26" t="n">
-        <v>2631.383042915616</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523947</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396619</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682960356</v>
@@ -6475,46 +6475,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2819.179224663062</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>3301.358424176565</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N29" t="n">
-        <v>3866.401488049237</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O29" t="n">
-        <v>4776.556370989981</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6706,52 +6706,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651425</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010445</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523947</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396619</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337363</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6867,31 +6867,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
         <v>140.96</v>
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6943,52 +6943,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1936.671378010444</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010445</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523947</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396619</v>
+        <v>4515.531628354182</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7180,52 +7180,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>2124.71495243113</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010445</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523947</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396619</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7341,49 +7341,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>199.1066270176099</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
@@ -7420,49 +7420,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1794.645504192963</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010445</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523947</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396619</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7523,16 +7523,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7578,40 +7578,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1936.671378010444</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>265.4073538855554</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,19 +7996,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>645.1956588512439</v>
+        <v>147.407866150359</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>746.2187031047697</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>105.4961355485622</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>419.8640113926995</v>
       </c>
       <c r="L11" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>165.4662215866837</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>301.7997308240108</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>510.3300622789883</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>392.2657817102986</v>
       </c>
       <c r="L20" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>685.9089394605967</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>383.4716344542428</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,28 +9880,28 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>301.7997308240108</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>567.8446588919069</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>713.8352387415304</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L32" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>526.93211305776</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>332.9552028337762</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>931.7660397881849</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>383.4716344542439</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>526.93211305776</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>496.2158265843855</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S12" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23457,7 +23457,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R16" t="n">
-        <v>608.1413738827905</v>
+        <v>442.9285853393641</v>
       </c>
       <c r="S16" t="n">
         <v>316.45975839138</v>
@@ -23724,7 +23724,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
-        <v>82.23085688668112</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y16" t="n">
         <v>287.4653528494624</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>107.6476277959926</v>
@@ -23952,7 +23952,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>17.45782105274509</v>
       </c>
       <c r="V19" t="n">
         <v>199.1703102162162</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292976512</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24399,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>107.6476277959926</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>65.41081595667603</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24654,7 +24654,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R28" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S28" t="n">
         <v>316.45975839138</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q31" t="n">
-        <v>505.228266425598</v>
+        <v>340.0154778821716</v>
       </c>
       <c r="R31" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24934,13 +24934,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>505.228266425598</v>
       </c>
       <c r="R34" t="n">
-        <v>608.1413738827905</v>
+        <v>442.9285853393641</v>
       </c>
       <c r="S34" t="n">
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25347,7 +25347,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>107.6476277959926</v>
@@ -25365,7 +25365,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S37" t="n">
         <v>316.45975839138</v>
@@ -25374,7 +25374,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>17.45782105274509</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25587,10 +25587,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>110.4557669832673</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25821,7 +25821,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>107.6476277959926</v>
@@ -25830,7 +25830,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25885,10 +25885,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9491222752731</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26058,16 +26058,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26085,7 +26085,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547376</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190735</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834092</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394975</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955856</v>
+        <v>6524501.502976739</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331897</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532115</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488203</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444293</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400384</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356474</v>
+        <v>18650963.18652837</v>
       </c>
     </row>
   </sheetData>
@@ -26322,34 +26322,34 @@
         <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245013</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245013</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="F2" t="n">
         <v>761428.9894323123</v>
-      </c>
-      <c r="F2" t="n">
-        <v>761428.9894323125</v>
       </c>
       <c r="G2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="I2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="J2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323121</v>
       </c>
       <c r="K2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="L2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="M2" t="n">
         <v>761428.9894323122</v>
@@ -26358,10 +26358,10 @@
         <v>761428.9894323125</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323128</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323125</v>
       </c>
     </row>
     <row r="3">
@@ -26426,46 +26426,46 @@
         <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.3268963469</v>
+        <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264139</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769595</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769595</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769593</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="L4" t="n">
-        <v>38928.93672769595</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.9367276959</v>
       </c>
     </row>
     <row r="5">
@@ -26530,7 +26530,7 @@
         <v>-1481447.775726326</v>
       </c>
       <c r="C6" t="n">
-        <v>563553.1753281547</v>
+        <v>563553.1753281543</v>
       </c>
       <c r="D6" t="n">
         <v>563855.5359980874</v>
@@ -26539,37 +26539,37 @@
         <v>583520.6527046163</v>
       </c>
       <c r="F6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="G6" t="n">
         <v>583520.6527046165</v>
       </c>
       <c r="H6" t="n">
-        <v>583520.6527046168</v>
+        <v>583520.6527046167</v>
       </c>
       <c r="I6" t="n">
         <v>583520.6527046165</v>
       </c>
       <c r="J6" t="n">
-        <v>-36703.3472953835</v>
+        <v>-36703.34729538381</v>
       </c>
       <c r="K6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="L6" t="n">
         <v>583520.6527046163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>583520.6527046165</v>
       </c>
       <c r="M6" t="n">
         <v>583520.6527046163</v>
       </c>
       <c r="N6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046167</v>
       </c>
       <c r="O6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046169</v>
       </c>
       <c r="P6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046167</v>
       </c>
     </row>
   </sheetData>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27723,7 +27723,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
-        <v>301.9797223374088</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V4" t="n">
         <v>199.1703102162162</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C7" t="n">
         <v>272.7252466480447</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27957,7 +27957,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>237.0465175784184</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -28197,7 +28197,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
-        <v>189.4450751868712</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V10" t="n">
         <v>199.1703102162162</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="11">
@@ -34825,34 +34825,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1012.521640317716</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35019,7 +35019,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -35071,7 +35071,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1572.056995534661</v>
+        <v>1074.269202833776</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,10 +35086,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35199,7 +35199,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>38.2788363180623</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35299,19 +35299,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1673.080039788187</v>
+        <v>1762</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>592.5458320268478</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
@@ -35326,7 +35326,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35493,7 +35493,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38.63038883044603</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -35539,16 +35539,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>1166.97829782486</v>
       </c>
       <c r="L11" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35563,7 +35563,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1009.776654008314</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,19 +36010,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1228.661067507428</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>1547.320742028618</v>
+        <v>997.379758757274</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36034,10 +36034,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.98940395526</v>
+        <v>1139.38006814246</v>
       </c>
       <c r="L20" t="n">
-        <v>1572.056995534661</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36484,28 +36484,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.770276144014</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>1227.782066875873</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36724,28 +36724,28 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1228.661067507428</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1235.262333125423</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36967,25 +36967,25 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>1494.705995575324</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1200.884935219816</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L32" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,7 +37216,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>1274.046399489921</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,7 +37450,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1252.303569440588</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,16 +37672,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1572.056995534661</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1418.815736266471</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37912,16 +37912,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>1130.585920886405</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -37933,7 +37933,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38143,25 +38143,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1274.046399489921</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1415.564193191198</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
